--- a/medicine/Enfance/Patxi_Zubizarreta/Patxi_Zubizarreta.xlsx
+++ b/medicine/Enfance/Patxi_Zubizarreta/Patxi_Zubizarreta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patxi Zubizarreta Dorronsoro, né le 25 janvier 1964 à Ordizia, est un écrivain spécialisé dans les livres pour enfants et un traducteur basque espagnol de langue basque.
 il reçoit le prix Euskadi dans la catégorie « Littérature pour enfants » en 1998 pour son livre Gizon izandako mutila et en 2006 avec Pantaleon badoa.
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Textes narratifs
 Troiako zaldia, 2003, Arabako Foru Aldundia ;
@@ -596,11 +610,13 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1998 : prix Euskadi dans la catégorie « Littérature pour enfants » pour Gizon izandako mutila
 2006 : prix Euskadi dans la catégorie « Littérature pour enfants » pour Pantaleon badoa.
-2020 : (international) « Honour List »[1] de l' IBBY pour Korri, Kuru, korri!</t>
+2020 : (international) « Honour List » de l' IBBY pour Korri, Kuru, korri!</t>
         </is>
       </c>
     </row>
